--- a/mind_corpus/corpus/mint-annotations.xlsx
+++ b/mind_corpus/corpus/mint-annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcale\PycharmProjects\MIND\mind_corpus\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80680C82-EE1F-43E9-8D7B-FABE722C3C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058B64C1-F771-414C-B33F-807957C77A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="responses" sheetId="1" r:id="rId1"/>
@@ -552,9 +552,6 @@
     <t>4969a19e8e10840ad17b3a8dd428ffe4.json</t>
   </si>
   <si>
-    <t>entertainment</t>
-  </si>
-  <si>
     <t>0735280041effe81a7f7efa89410a9c0.json</t>
   </si>
   <si>
@@ -648,9 +645,6 @@
     <t>003b9d7981ba2f05a3bc00b08fd32db9.json</t>
   </si>
   <si>
-    <t>fact</t>
-  </si>
-  <si>
     <t>08d2290458a556de38c4a00bf846936d.json</t>
   </si>
   <si>
@@ -1570,6 +1564,12 @@
   </si>
   <si>
     <t>Influencing aspects</t>
+  </si>
+  <si>
+    <t>hard news</t>
+  </si>
+  <si>
+    <t>soft news</t>
   </si>
 </sst>
 </file>
@@ -1844,9 +1844,9 @@
   </sheetPr>
   <dimension ref="A1:R752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O95" sqref="O95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1878,49 +1878,49 @@
         <v>157</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -4705,7 +4705,7 @@
         <v>171</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>171</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C56" s="7">
         <v>3</v>
@@ -4811,7 +4811,7 @@
         <v>171</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C57" s="7">
         <v>2</v>
@@ -4863,7 +4863,7 @@
         <v>171</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C58" s="7">
         <v>3</v>
@@ -4915,7 +4915,7 @@
         <v>171</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C59" s="7">
         <v>3</v>
@@ -4967,7 +4967,7 @@
         <v>171</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C60" s="7">
         <v>4</v>
@@ -5016,10 +5016,10 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C61" s="7">
         <v>4</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C62" s="7">
         <v>4</v>
@@ -5124,10 +5124,10 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C63" s="7">
         <v>3</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>7</v>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5282,10 +5282,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C66" s="7">
         <v>3</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C67" s="7">
         <v>5</v>
@@ -5388,10 +5388,10 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C68" s="7">
         <v>5</v>
@@ -5440,10 +5440,10 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C69" s="7">
         <v>3</v>
@@ -5492,10 +5492,10 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C70" s="7">
         <v>3</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C71" s="7">
         <v>2</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C72" s="7">
         <v>5</v>
@@ -5648,10 +5648,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C74" s="7">
         <v>2</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C75" s="7">
         <v>5</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C76" s="7">
         <v>4</v>
@@ -5856,10 +5856,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C78" s="7">
         <v>4</v>
@@ -5960,10 +5960,10 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C79" s="7">
         <v>5</v>
@@ -6012,10 +6012,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C80" s="7">
         <v>5</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>7</v>
@@ -6118,10 +6118,10 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C82" s="7">
         <v>3</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C83" s="7">
         <v>3</v>
@@ -6224,10 +6224,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C84" s="7">
         <v>4</v>
@@ -6278,10 +6278,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C85" s="7">
         <v>4</v>
@@ -6332,10 +6332,10 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C86" s="7">
         <v>2</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C87" s="7">
         <v>3</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C88" s="7">
         <v>3</v>
@@ -6490,10 +6490,10 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C89" s="7">
         <v>2</v>
@@ -6542,10 +6542,10 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C90" s="7">
         <v>2</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C91" s="7">
         <v>4</v>
@@ -6646,10 +6646,10 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C92" s="7">
         <v>2</v>
@@ -6700,10 +6700,10 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>7</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C94" s="7">
         <v>4</v>
@@ -6806,10 +6806,10 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C95" s="7">
         <v>4</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C96" s="7">
         <v>2</v>
@@ -6914,10 +6914,10 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="C97" s="7">
         <v>2</v>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
@@ -7020,10 +7020,10 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -7072,10 +7072,10 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" s="7">
         <v>1</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" s="7">
         <v>1</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -7282,10 +7282,10 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C104" s="7">
         <v>1</v>
@@ -7336,10 +7336,10 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C106" s="7">
         <v>1</v>
@@ -7440,10 +7440,10 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="7">
         <v>1</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="7">
         <v>2</v>
@@ -7600,10 +7600,10 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="7">
         <v>3</v>
@@ -7654,10 +7654,10 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -7706,10 +7706,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112" s="7">
         <v>2</v>
@@ -7758,10 +7758,10 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -7810,10 +7810,10 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114" s="7">
         <v>2</v>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C115" s="7">
         <v>2</v>
@@ -7914,10 +7914,10 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C116" s="7">
         <v>5</v>
@@ -7966,10 +7966,10 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -8018,10 +8018,10 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C118" s="7">
         <v>1</v>
@@ -8070,10 +8070,10 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -8122,10 +8122,10 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C120" s="7">
         <v>1</v>
@@ -8174,10 +8174,10 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C121" s="7">
         <v>3</v>
@@ -8226,10 +8226,10 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C122" s="7">
         <v>2</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C123" s="7">
         <v>3</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C124" s="7">
         <v>1</v>
@@ -8382,10 +8382,10 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="C125" s="7">
         <v>3</v>
@@ -8434,10 +8434,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="C126" s="7">
         <v>1</v>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C127" s="7">
         <v>1</v>
@@ -8538,10 +8538,10 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C128" s="7">
         <v>1</v>
@@ -8590,10 +8590,10 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C129" s="7">
         <v>1</v>
@@ -8642,10 +8642,10 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C130" s="7">
         <v>3</v>
@@ -8694,10 +8694,10 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C131" s="7">
         <v>3</v>
@@ -8748,10 +8748,10 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C132" s="7">
         <v>1</v>
@@ -8802,10 +8802,10 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C133" s="7">
         <v>3</v>
@@ -8854,10 +8854,10 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C134" s="7">
         <v>1</v>
@@ -8906,10 +8906,10 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
@@ -8958,10 +8958,10 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C136" s="7">
         <v>1</v>
@@ -9010,10 +9010,10 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
@@ -9062,10 +9062,10 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C138" s="7">
         <v>1</v>
@@ -9114,10 +9114,10 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
@@ -9166,10 +9166,10 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C140" s="7">
         <v>1</v>
@@ -9218,10 +9218,10 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
@@ -9322,10 +9322,10 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C143" s="7">
         <v>1</v>
@@ -9374,10 +9374,10 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C144" s="7">
         <v>1</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C145" s="7">
         <v>1</v>
@@ -9480,10 +9480,10 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C146" s="7">
         <v>1</v>
@@ -9534,10 +9534,10 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
@@ -9588,10 +9588,10 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C148" s="7">
         <v>1</v>
@@ -9640,10 +9640,10 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C149" s="7">
         <v>4</v>
@@ -9694,10 +9694,10 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C150" s="7">
         <v>5</v>
@@ -9748,10 +9748,10 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C151" s="7">
         <v>4</v>
@@ -9802,10 +9802,10 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C152" s="7">
         <v>4</v>
@@ -9856,10 +9856,10 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C153" s="7">
         <v>3</v>
@@ -9908,10 +9908,10 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C154" s="7">
         <v>3</v>
@@ -9960,10 +9960,10 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C155" s="7">
         <v>3</v>
@@ -10012,10 +10012,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C156" s="7">
         <v>4</v>
@@ -10066,10 +10066,10 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C157" s="7">
         <v>4</v>
@@ -10120,10 +10120,10 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C158" s="7">
         <v>4</v>
@@ -10174,10 +10174,10 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
@@ -10226,10 +10226,10 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C160" s="7">
         <v>4</v>
@@ -10278,10 +10278,10 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C161" s="7">
         <v>5</v>
@@ -10330,10 +10330,10 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C162" s="7">
         <v>3</v>
@@ -10384,10 +10384,10 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C163" s="7">
         <v>3</v>
@@ -10438,10 +10438,10 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C164" s="7">
         <v>4</v>
@@ -10492,10 +10492,10 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C165" s="7">
         <v>5</v>
@@ -10546,10 +10546,10 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C166" s="7">
         <v>3</v>
@@ -10600,10 +10600,10 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C167" s="7">
         <v>5</v>
@@ -10652,10 +10652,10 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C168" s="7">
         <v>4</v>
@@ -10706,10 +10706,10 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C169" s="7">
         <v>4</v>
@@ -10760,10 +10760,10 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C170" s="7">
         <v>4</v>
@@ -10814,10 +10814,10 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C171" s="7">
         <v>5</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>7</v>
@@ -10918,10 +10918,10 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C173" s="7">
         <v>4</v>
@@ -10972,10 +10972,10 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C174" s="7">
         <v>1</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>159</v>
@@ -11078,7 +11078,7 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>159</v>
@@ -11130,7 +11130,7 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>159</v>
@@ -11182,7 +11182,7 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>159</v>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>159</v>
@@ -11286,7 +11286,7 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>159</v>
@@ -11338,7 +11338,7 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>159</v>
@@ -11390,7 +11390,7 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>159</v>
@@ -11442,7 +11442,7 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>159</v>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>159</v>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>159</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>159</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>159</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>159</v>
@@ -11758,7 +11758,7 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>159</v>
@@ -11810,7 +11810,7 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>159</v>
@@ -11862,7 +11862,7 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>159</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>159</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>159</v>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>159</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>159</v>
@@ -12122,7 +12122,7 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>159</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>159</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>159</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>159</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>159</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>159</v>
@@ -12438,7 +12438,7 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>159</v>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>159</v>
@@ -12542,7 +12542,7 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>159</v>
@@ -12594,7 +12594,7 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>159</v>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>159</v>
@@ -12698,7 +12698,7 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>159</v>
@@ -12750,7 +12750,7 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>159</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>159</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>159</v>
@@ -12906,7 +12906,7 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>159</v>
@@ -12958,7 +12958,7 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>159</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>159</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>159</v>
@@ -13114,10 +13114,10 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C215" s="7">
         <v>4</v>
@@ -13166,10 +13166,10 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C216" s="7">
         <v>3</v>
@@ -13220,10 +13220,10 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C217" s="7">
         <v>4</v>
@@ -13274,10 +13274,10 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C218" s="7">
         <v>4</v>
@@ -13328,10 +13328,10 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C219" s="7">
         <v>4</v>
@@ -13380,10 +13380,10 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>7</v>
@@ -13432,10 +13432,10 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C221" s="7">
         <v>3</v>
@@ -13484,10 +13484,10 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C222" s="7">
         <v>2</v>
@@ -13536,10 +13536,10 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C223" s="7">
         <v>2</v>
@@ -13588,10 +13588,10 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C224" s="7">
         <v>3</v>
@@ -13640,10 +13640,10 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>7</v>
@@ -13694,10 +13694,10 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>7</v>
@@ -13748,10 +13748,10 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C227" s="7">
         <v>3</v>
@@ -13802,10 +13802,10 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C228" s="7">
         <v>1</v>
@@ -13854,10 +13854,10 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C229" s="7">
         <v>4</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C230" s="7">
         <v>2</v>
@@ -13962,10 +13962,10 @@
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C231" s="7">
         <v>3</v>
@@ -14016,10 +14016,10 @@
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C232" s="7">
         <v>2</v>
@@ -14070,10 +14070,10 @@
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>7</v>
@@ -14122,10 +14122,10 @@
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C234" s="7">
         <v>2</v>
@@ -14174,10 +14174,10 @@
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C235" s="7">
         <v>3</v>
@@ -14226,10 +14226,10 @@
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C236" s="7">
         <v>2</v>
@@ -14280,10 +14280,10 @@
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C237" s="7">
         <v>1</v>
@@ -14334,10 +14334,10 @@
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C238" s="7">
         <v>1</v>
@@ -14386,10 +14386,10 @@
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C239" s="7">
         <v>4</v>
@@ -14440,10 +14440,10 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C240" s="7">
         <v>2</v>
@@ -14492,10 +14492,10 @@
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C241" s="7">
         <v>5</v>
@@ -14546,10 +14546,10 @@
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C242" s="7">
         <v>3</v>
@@ -14598,10 +14598,10 @@
     </row>
     <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C243" s="7">
         <v>2</v>
@@ -14650,10 +14650,10 @@
     </row>
     <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>7</v>
@@ -14702,10 +14702,10 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C245" s="7">
         <v>3</v>
@@ -14754,10 +14754,10 @@
     </row>
     <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C246" s="7">
         <v>2</v>
@@ -14806,10 +14806,10 @@
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C247" s="7">
         <v>3</v>
@@ -14858,10 +14858,10 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C248" s="7">
         <v>3</v>
@@ -14910,10 +14910,10 @@
     </row>
     <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C249" s="7">
         <v>1</v>
@@ -14964,10 +14964,10 @@
     </row>
     <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C250" s="7">
         <v>3</v>
@@ -15016,10 +15016,10 @@
     </row>
     <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C251" s="7">
         <v>4</v>
@@ -15070,10 +15070,10 @@
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C252" s="7">
         <v>5</v>
@@ -15124,10 +15124,10 @@
     </row>
     <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C253" s="7">
         <v>1</v>
@@ -15178,10 +15178,10 @@
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C254" s="7">
         <v>1</v>
@@ -15230,10 +15230,10 @@
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C255" s="7">
         <v>1</v>
@@ -15282,10 +15282,10 @@
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C256" s="7">
         <v>1</v>
@@ -15336,10 +15336,10 @@
     </row>
     <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C257" s="7">
         <v>5</v>
@@ -15390,10 +15390,10 @@
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C258" s="7">
         <v>1</v>
@@ -15442,10 +15442,10 @@
     </row>
     <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C259" s="7">
         <v>1</v>
@@ -15496,10 +15496,10 @@
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C260" s="7">
         <v>1</v>
@@ -15550,10 +15550,10 @@
     </row>
     <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C261" s="7">
         <v>4</v>
@@ -15604,10 +15604,10 @@
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C262" s="7">
         <v>1</v>
@@ -15658,10 +15658,10 @@
     </row>
     <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C263" s="7">
         <v>1</v>
@@ -15710,10 +15710,10 @@
     </row>
     <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C264" s="7">
         <v>2</v>
@@ -15762,10 +15762,10 @@
     </row>
     <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C265" s="7">
         <v>1</v>
@@ -15816,10 +15816,10 @@
     </row>
     <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C266" s="7">
         <v>4</v>
@@ -15870,10 +15870,10 @@
     </row>
     <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C267" s="7">
         <v>4</v>
@@ -15924,10 +15924,10 @@
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C268" s="7">
         <v>2</v>
@@ -15976,10 +15976,10 @@
     </row>
     <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C269" s="7">
         <v>2</v>
@@ -16028,10 +16028,10 @@
     </row>
     <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C270" s="7">
         <v>1</v>
@@ -16080,10 +16080,10 @@
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C271" s="7">
         <v>1</v>
@@ -16132,10 +16132,10 @@
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C272" s="7">
         <v>2</v>
@@ -16184,10 +16184,10 @@
     </row>
     <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C273" s="7">
         <v>1</v>
@@ -16238,10 +16238,10 @@
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C274" s="7">
         <v>4</v>
@@ -16292,10 +16292,10 @@
     </row>
     <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C275" s="7">
         <v>1</v>
@@ -16344,10 +16344,10 @@
     </row>
     <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C276" s="7">
         <v>1</v>
@@ -16396,10 +16396,10 @@
     </row>
     <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C277" s="7">
         <v>2</v>
@@ -16448,10 +16448,10 @@
     </row>
     <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C278" s="7">
         <v>1</v>
@@ -16500,10 +16500,10 @@
     </row>
     <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C279" s="7">
         <v>1</v>
@@ -16552,10 +16552,10 @@
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C280" s="7">
         <v>1</v>
@@ -16604,10 +16604,10 @@
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C281" s="7">
         <v>1</v>
@@ -16656,10 +16656,10 @@
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C282" s="7">
         <v>3</v>
@@ -16708,10 +16708,10 @@
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C283" s="7">
         <v>1</v>
@@ -16760,10 +16760,10 @@
     </row>
     <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C284" s="7">
         <v>1</v>
@@ -16814,10 +16814,10 @@
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C285" s="7">
         <v>4</v>
@@ -16868,10 +16868,10 @@
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C286" s="7">
         <v>1</v>
@@ -16920,10 +16920,10 @@
     </row>
     <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C287" s="7">
         <v>1</v>
@@ -16972,10 +16972,10 @@
     </row>
     <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C288" s="7">
         <v>1</v>
@@ -17026,10 +17026,10 @@
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C289" s="7">
         <v>1</v>
@@ -17078,10 +17078,10 @@
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C290" s="7">
         <v>1</v>
@@ -17132,10 +17132,10 @@
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C291" s="7">
         <v>1</v>
@@ -17184,10 +17184,10 @@
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C292" s="7">
         <v>1</v>
@@ -17236,10 +17236,10 @@
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C293" s="7">
         <v>1</v>
@@ -17288,10 +17288,10 @@
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C294" s="7">
         <v>1</v>
@@ -17340,10 +17340,10 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C295" s="7">
         <v>5</v>
@@ -17392,10 +17392,10 @@
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C296" s="7">
         <v>2</v>
@@ -17446,10 +17446,10 @@
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C297" s="7">
         <v>3</v>
@@ -17500,10 +17500,10 @@
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C298" s="7">
         <v>4</v>
@@ -17554,10 +17554,10 @@
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C299" s="7">
         <v>3</v>
@@ -17608,10 +17608,10 @@
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C300" s="7">
         <v>3</v>
@@ -17660,10 +17660,10 @@
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C301" s="7">
         <v>4</v>
@@ -17712,10 +17712,10 @@
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C302" s="7">
         <v>3</v>
@@ -17764,10 +17764,10 @@
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C303" s="7">
         <v>4</v>
@@ -17818,10 +17818,10 @@
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C304" s="7">
         <v>4</v>
@@ -17870,10 +17870,10 @@
     </row>
     <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C305" s="7">
         <v>3</v>
@@ -17924,10 +17924,10 @@
     </row>
     <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C306" s="7">
         <v>4</v>
@@ -17978,10 +17978,10 @@
     </row>
     <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C307" s="7">
         <v>4</v>
@@ -18032,10 +18032,10 @@
     </row>
     <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C308" s="7">
         <v>5</v>
@@ -18086,10 +18086,10 @@
     </row>
     <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C309" s="7">
         <v>3</v>
@@ -18140,10 +18140,10 @@
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C310" s="7">
         <v>5</v>
@@ -18194,10 +18194,10 @@
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C311" s="7">
         <v>1</v>
@@ -18248,10 +18248,10 @@
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C312" s="7">
         <v>3</v>
@@ -18300,10 +18300,10 @@
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C313" s="7">
         <v>4</v>
@@ -18352,10 +18352,10 @@
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C314" s="7">
         <v>5</v>
@@ -18404,10 +18404,10 @@
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C315" s="7">
         <v>1</v>
@@ -18458,10 +18458,10 @@
     </row>
     <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C316" s="7">
         <v>2</v>
@@ -18510,10 +18510,10 @@
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C317" s="7">
         <v>4</v>
@@ -18564,10 +18564,10 @@
     </row>
     <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C318" s="7">
         <v>4</v>
@@ -18616,10 +18616,10 @@
     </row>
     <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C319" s="7">
         <v>5</v>
@@ -18670,10 +18670,10 @@
     </row>
     <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C320" s="7">
         <v>4</v>
@@ -18722,10 +18722,10 @@
     </row>
     <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C321" s="7">
         <v>2</v>
@@ -18774,10 +18774,10 @@
     </row>
     <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C322" s="7">
         <v>2</v>
@@ -18828,10 +18828,10 @@
     </row>
     <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C323" s="7">
         <v>5</v>
@@ -18882,10 +18882,10 @@
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C324" s="7">
         <v>1</v>
@@ -18934,10 +18934,10 @@
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C325" s="7">
         <v>2</v>
@@ -18988,10 +18988,10 @@
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C326" s="7">
         <v>1</v>
@@ -19042,10 +19042,10 @@
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C327" s="7">
         <v>3</v>
@@ -19096,10 +19096,10 @@
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C328" s="7">
         <v>1</v>
@@ -19150,10 +19150,10 @@
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C329" s="7">
         <v>2</v>
@@ -19202,10 +19202,10 @@
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C330" s="7">
         <v>2</v>
@@ -19254,10 +19254,10 @@
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C331" s="7">
         <v>2</v>
@@ -19306,10 +19306,10 @@
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C332" s="7">
         <v>1</v>
@@ -19358,10 +19358,10 @@
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C333" s="7">
         <v>1</v>
@@ -19410,10 +19410,10 @@
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C334" s="7">
         <v>3</v>
@@ -19464,10 +19464,10 @@
     </row>
     <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C335" s="7">
         <v>1</v>
@@ -19518,10 +19518,10 @@
     </row>
     <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C336" s="7">
         <v>3</v>
@@ -19572,10 +19572,10 @@
     </row>
     <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C337" s="7">
         <v>4</v>
@@ -19626,10 +19626,10 @@
     </row>
     <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C338" s="7">
         <v>2</v>
@@ -19678,10 +19678,10 @@
     </row>
     <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C339" s="7">
         <v>1</v>
@@ -19732,10 +19732,10 @@
     </row>
     <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C340" s="7">
         <v>3</v>
@@ -19784,10 +19784,10 @@
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C341" s="7">
         <v>2</v>
@@ -19836,10 +19836,10 @@
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C342" s="7">
         <v>2</v>
@@ -19888,10 +19888,10 @@
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C343" s="7">
         <v>2</v>
@@ -19940,10 +19940,10 @@
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C344" s="7">
         <v>1</v>
@@ -19994,10 +19994,10 @@
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C345" s="7">
         <v>2</v>
@@ -20046,10 +20046,10 @@
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C346" s="7">
         <v>4</v>
@@ -20100,10 +20100,10 @@
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C347" s="7">
         <v>5</v>
@@ -20152,10 +20152,10 @@
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C348" s="7">
         <v>1</v>
@@ -20206,10 +20206,10 @@
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C349" s="7">
         <v>1</v>
@@ -20260,10 +20260,10 @@
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C350" s="7">
         <v>4</v>
@@ -20314,10 +20314,10 @@
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C351" s="7">
         <v>1</v>
@@ -20366,10 +20366,10 @@
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C352" s="7">
         <v>2</v>
@@ -20418,10 +20418,10 @@
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C353" s="7">
         <v>1</v>
@@ -20470,10 +20470,10 @@
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C354" s="7">
         <v>1</v>
@@ -20524,10 +20524,10 @@
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C355" s="7">
         <v>2</v>
@@ -20576,10 +20576,10 @@
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C356" s="7">
         <v>4</v>
@@ -20630,10 +20630,10 @@
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C357" s="7">
         <v>3</v>
@@ -20684,10 +20684,10 @@
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C358" s="7">
         <v>2</v>
@@ -20736,10 +20736,10 @@
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C359" s="7">
         <v>2</v>
@@ -20788,10 +20788,10 @@
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C360" s="7">
         <v>3</v>
@@ -20842,10 +20842,10 @@
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C361" s="7">
         <v>2</v>
@@ -20896,10 +20896,10 @@
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C362" s="7">
         <v>1</v>
@@ -20948,10 +20948,10 @@
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C363" s="7">
         <v>1</v>
@@ -21000,10 +21000,10 @@
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C364" s="7">
         <v>4</v>
@@ -21054,10 +21054,10 @@
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C365" s="7">
         <v>5</v>
@@ -21108,10 +21108,10 @@
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C366" s="7">
         <v>4</v>
@@ -21162,10 +21162,10 @@
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C367" s="7">
         <v>2</v>
@@ -21214,10 +21214,10 @@
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C368" s="7">
         <v>5</v>
@@ -21266,10 +21266,10 @@
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C369" s="7">
         <v>1</v>
@@ -21318,10 +21318,10 @@
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C370" s="7">
         <v>1</v>
@@ -21372,10 +21372,10 @@
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C371" s="7">
         <v>1</v>
@@ -21424,10 +21424,10 @@
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C372" s="7">
         <v>1</v>
@@ -21476,10 +21476,10 @@
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C373" s="7">
         <v>3</v>
@@ -21530,10 +21530,10 @@
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C374" s="7">
         <v>1</v>
@@ -21584,10 +21584,10 @@
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C375" s="7">
         <v>1</v>
@@ -21636,10 +21636,10 @@
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C376" s="7">
         <v>3</v>
@@ -21688,10 +21688,10 @@
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C377" s="7">
         <v>1</v>
@@ -21740,10 +21740,10 @@
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C378" s="7">
         <v>2</v>
@@ -21792,10 +21792,10 @@
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C379" s="7">
         <v>2</v>
@@ -21844,10 +21844,10 @@
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>7</v>
@@ -21896,10 +21896,10 @@
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C381" s="7">
         <v>3</v>
@@ -21948,10 +21948,10 @@
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>7</v>
@@ -22002,10 +22002,10 @@
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C383" s="7">
         <v>1</v>
@@ -22054,10 +22054,10 @@
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C384" s="7">
         <v>3</v>
@@ -22108,10 +22108,10 @@
     </row>
     <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C385" s="7">
         <v>1</v>
@@ -22162,10 +22162,10 @@
     </row>
     <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C386" s="7">
         <v>1</v>
@@ -22214,10 +22214,10 @@
     </row>
     <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C387" s="7">
         <v>2</v>
@@ -22266,10 +22266,10 @@
     </row>
     <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C388" s="7">
         <v>2</v>
@@ -22318,10 +22318,10 @@
     </row>
     <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C389" s="7">
         <v>1</v>
@@ -22370,10 +22370,10 @@
     </row>
     <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C390" s="7">
         <v>2</v>
@@ -22424,10 +22424,10 @@
     </row>
     <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C391" s="7">
         <v>3</v>
@@ -22476,10 +22476,10 @@
     </row>
     <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C392" s="7">
         <v>2</v>
@@ -22528,10 +22528,10 @@
     </row>
     <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C393" s="7">
         <v>3</v>
@@ -22582,10 +22582,10 @@
     </row>
     <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C394" s="7">
         <v>2</v>
@@ -22636,10 +22636,10 @@
     </row>
     <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C395" s="7">
         <v>1</v>
@@ -22688,10 +22688,10 @@
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C396" s="7">
         <v>2</v>
@@ -22740,10 +22740,10 @@
     </row>
     <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C397" s="7">
         <v>1</v>
@@ -22792,10 +22792,10 @@
     </row>
     <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C398" s="7">
         <v>4</v>
@@ -22844,10 +22844,10 @@
     </row>
     <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C399" s="7">
         <v>1</v>
@@ -22896,10 +22896,10 @@
     </row>
     <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C400" s="7">
         <v>3</v>
@@ -22950,10 +22950,10 @@
     </row>
     <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C401" s="7">
         <v>2</v>
@@ -23002,10 +23002,10 @@
     </row>
     <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C402" s="7">
         <v>2</v>
@@ -23054,10 +23054,10 @@
     </row>
     <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C403" s="7">
         <v>4</v>
@@ -23106,10 +23106,10 @@
     </row>
     <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C404" s="7">
         <v>2</v>
@@ -23160,10 +23160,10 @@
     </row>
     <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>7</v>
@@ -23214,10 +23214,10 @@
     </row>
     <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C406" s="7">
         <v>1</v>
@@ -23266,10 +23266,10 @@
     </row>
     <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C407" s="7">
         <v>1</v>
@@ -23320,10 +23320,10 @@
     </row>
     <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B408" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C408" s="7">
         <v>2</v>
@@ -23374,10 +23374,10 @@
     </row>
     <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C409" s="7">
         <v>5</v>
@@ -23428,10 +23428,10 @@
     </row>
     <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C410" s="7">
         <v>1</v>
@@ -23480,10 +23480,10 @@
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C411" s="7">
         <v>1</v>
@@ -23534,10 +23534,10 @@
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C412" s="7">
         <v>1</v>
@@ -23588,10 +23588,10 @@
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C413" s="7">
         <v>4</v>
@@ -23640,10 +23640,10 @@
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C414" s="7">
         <v>3</v>
@@ -23692,10 +23692,10 @@
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C415" s="7">
         <v>5</v>
@@ -23746,10 +23746,10 @@
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C416" s="7" t="s">
         <v>7</v>
@@ -23800,10 +23800,10 @@
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C417" s="7">
         <v>5</v>
@@ -23854,10 +23854,10 @@
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C418" s="7">
         <v>1</v>
@@ -23906,10 +23906,10 @@
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C419" s="7">
         <v>4</v>
@@ -23960,10 +23960,10 @@
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C420" s="7">
         <v>2</v>
@@ -24014,10 +24014,10 @@
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C421" s="7">
         <v>4</v>
@@ -24068,10 +24068,10 @@
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C422" s="7">
         <v>2</v>
@@ -24122,10 +24122,10 @@
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C423" s="7">
         <v>4</v>
@@ -24176,10 +24176,10 @@
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C424" s="7">
         <v>3</v>
@@ -24230,10 +24230,10 @@
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C425" s="7">
         <v>3</v>
@@ -24284,10 +24284,10 @@
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C426" s="7">
         <v>1</v>
@@ -24338,10 +24338,10 @@
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C427" s="7">
         <v>2</v>
@@ -24392,10 +24392,10 @@
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C428" s="7">
         <v>3</v>
@@ -24446,10 +24446,10 @@
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C429" s="7">
         <v>5</v>
@@ -24500,10 +24500,10 @@
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C430" s="7">
         <v>5</v>
@@ -24554,10 +24554,10 @@
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C431" s="7">
         <v>5</v>
@@ -24606,10 +24606,10 @@
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C432" s="7">
         <v>3</v>
@@ -24658,10 +24658,10 @@
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C433" s="7">
         <v>4</v>
@@ -24712,10 +24712,10 @@
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C434" s="7">
         <v>4</v>
@@ -24766,10 +24766,10 @@
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C435" s="7">
         <v>2</v>
@@ -24818,10 +24818,10 @@
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C436" s="7" t="s">
         <v>7</v>
@@ -24870,10 +24870,10 @@
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C437" s="7">
         <v>3</v>
@@ -24924,10 +24924,10 @@
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C438" s="7">
         <v>3</v>
@@ -24978,10 +24978,10 @@
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C439" s="7">
         <v>4</v>
@@ -25032,10 +25032,10 @@
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C440" s="7">
         <v>4</v>
@@ -25086,10 +25086,10 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C441" s="7">
         <v>4</v>
@@ -25138,10 +25138,10 @@
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C442" s="7">
         <v>4</v>
@@ -25190,10 +25190,10 @@
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C443" s="7">
         <v>3</v>
@@ -25242,10 +25242,10 @@
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C444" s="7">
         <v>5</v>
@@ -25296,10 +25296,10 @@
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C445" s="7">
         <v>3</v>
@@ -25348,10 +25348,10 @@
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C446" s="7">
         <v>5</v>
@@ -25402,10 +25402,10 @@
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C447" s="7">
         <v>1</v>
@@ -25454,10 +25454,10 @@
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C448" s="7">
         <v>4</v>
@@ -25508,10 +25508,10 @@
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C449" s="7">
         <v>4</v>
@@ -25562,10 +25562,10 @@
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C450" s="7">
         <v>4</v>
@@ -25614,10 +25614,10 @@
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C451" s="7">
         <v>3</v>
@@ -25666,10 +25666,10 @@
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C452" s="7">
         <v>5</v>
@@ -25718,10 +25718,10 @@
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C453" s="7">
         <v>4</v>
@@ -25772,10 +25772,10 @@
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C454" s="7">
         <v>5</v>
@@ -25826,10 +25826,10 @@
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C455" s="7">
         <v>5</v>
@@ -25880,10 +25880,10 @@
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C456" s="7">
         <v>3</v>
@@ -25934,10 +25934,10 @@
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C457" s="7">
         <v>5</v>
@@ -25988,10 +25988,10 @@
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C458" s="7">
         <v>3</v>
@@ -26042,10 +26042,10 @@
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C459" s="7">
         <v>4</v>
@@ -26096,10 +26096,10 @@
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C460" s="7">
         <v>4</v>
@@ -26150,10 +26150,10 @@
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C461" s="7">
         <v>5</v>
@@ -26204,10 +26204,10 @@
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C462" s="7">
         <v>4</v>
@@ -26256,10 +26256,10 @@
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C463" s="7">
         <v>4</v>
@@ -26308,10 +26308,10 @@
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C464" s="7">
         <v>4</v>
@@ -26362,10 +26362,10 @@
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C465" s="7">
         <v>4</v>
@@ -26416,10 +26416,10 @@
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C466" s="7">
         <v>5</v>
@@ -26470,10 +26470,10 @@
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C467" s="7">
         <v>4</v>
@@ -26522,10 +26522,10 @@
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C468" s="7">
         <v>4</v>
@@ -26576,10 +26576,10 @@
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C469" s="7">
         <v>4</v>
@@ -26630,10 +26630,10 @@
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C470" s="7">
         <v>3</v>
@@ -26684,10 +26684,10 @@
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C471" s="7">
         <v>4</v>
@@ -26738,10 +26738,10 @@
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C472" s="7">
         <v>2</v>
@@ -26790,10 +26790,10 @@
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C473" s="7">
         <v>5</v>
@@ -26844,10 +26844,10 @@
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C474" s="7">
         <v>4</v>
@@ -26898,10 +26898,10 @@
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C475" s="7">
         <v>4</v>
@@ -26950,10 +26950,10 @@
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C476" s="7">
         <v>5</v>
@@ -27004,10 +27004,10 @@
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C477" s="7">
         <v>1</v>
@@ -27056,10 +27056,10 @@
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C478" s="7">
         <v>3</v>
@@ -27110,10 +27110,10 @@
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C479" s="7">
         <v>5</v>
@@ -27164,10 +27164,10 @@
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C480" s="7">
         <v>4</v>
@@ -27218,10 +27218,10 @@
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C481" s="7">
         <v>4</v>
@@ -27272,10 +27272,10 @@
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C482" s="7">
         <v>5</v>
@@ -27326,10 +27326,10 @@
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C483" s="7">
         <v>2</v>
@@ -27380,10 +27380,10 @@
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C484" s="7">
         <v>5</v>
@@ -27434,10 +27434,10 @@
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C485" s="7">
         <v>2</v>
@@ -27486,10 +27486,10 @@
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B486" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C486" s="7">
         <v>3</v>
@@ -27538,10 +27538,10 @@
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C487" s="7">
         <v>3</v>
@@ -27592,10 +27592,10 @@
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C488" s="7">
         <v>5</v>
@@ -27646,10 +27646,10 @@
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A489" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C489" s="7">
         <v>1</v>
@@ -27698,10 +27698,10 @@
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A490" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C490" s="7">
         <v>3</v>
@@ -27752,10 +27752,10 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C491" s="7">
         <v>4</v>
@@ -27806,10 +27806,10 @@
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C492" s="7">
         <v>1</v>
@@ -27860,10 +27860,10 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C493" s="7">
         <v>5</v>
@@ -27914,10 +27914,10 @@
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B494" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C494" s="7">
         <v>2</v>
@@ -27968,10 +27968,10 @@
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A495" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C495" s="7">
         <v>3</v>
@@ -28022,10 +28022,10 @@
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B496" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C496" s="7">
         <v>4</v>
@@ -28076,10 +28076,10 @@
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B497" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C497" s="7">
         <v>3</v>
@@ -28128,10 +28128,10 @@
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B498" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C498" s="7">
         <v>4</v>
@@ -28182,10 +28182,10 @@
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B499" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C499" s="7">
         <v>4</v>
@@ -28236,10 +28236,10 @@
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B500" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C500" s="7">
         <v>5</v>
@@ -28290,10 +28290,10 @@
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A501" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B501" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C501" s="7">
         <v>5</v>
@@ -28344,10 +28344,10 @@
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A502" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B502" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C502" s="7">
         <v>1</v>
@@ -28396,10 +28396,10 @@
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C503" s="7">
         <v>5</v>
@@ -28450,10 +28450,10 @@
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C504" s="7">
         <v>4</v>
@@ -28504,10 +28504,10 @@
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C505" s="7">
         <v>5</v>
@@ -28558,10 +28558,10 @@
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C506" s="7">
         <v>1</v>
@@ -28610,10 +28610,10 @@
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C507" s="7">
         <v>4</v>
@@ -28664,10 +28664,10 @@
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A508" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C508" s="7">
         <v>4</v>
@@ -28718,10 +28718,10 @@
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A509" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C509" s="7">
         <v>5</v>
@@ -28772,10 +28772,10 @@
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B510" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="C510" s="7">
         <v>3</v>
@@ -28824,10 +28824,10 @@
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B511" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C511" s="7">
         <v>1</v>
@@ -28878,10 +28878,10 @@
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A512" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B512" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C512" s="7">
         <v>1</v>
@@ -28930,10 +28930,10 @@
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B513" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C513" s="7">
         <v>2</v>
@@ -28982,10 +28982,10 @@
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B514" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C514" s="7">
         <v>1</v>
@@ -29034,10 +29034,10 @@
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C515" s="7">
         <v>1</v>
@@ -29086,10 +29086,10 @@
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B516" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C516" s="7">
         <v>3</v>
@@ -29138,10 +29138,10 @@
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A517" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B517" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C517" s="7">
         <v>1</v>
@@ -29190,10 +29190,10 @@
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A518" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B518" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C518" s="7">
         <v>1</v>
@@ -29244,10 +29244,10 @@
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A519" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B519" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C519" s="7">
         <v>1</v>
@@ -29298,10 +29298,10 @@
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B520" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C520" s="7">
         <v>1</v>
@@ -29352,10 +29352,10 @@
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B521" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C521" s="7">
         <v>1</v>
@@ -29404,10 +29404,10 @@
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B522" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C522" s="7">
         <v>1</v>
@@ -29458,10 +29458,10 @@
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B523" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C523" s="7" t="s">
         <v>7</v>
@@ -29510,10 +29510,10 @@
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B524" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C524" s="7">
         <v>1</v>
@@ -29562,10 +29562,10 @@
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B525" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C525" s="7">
         <v>1</v>
@@ -29614,10 +29614,10 @@
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B526" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C526" s="7">
         <v>1</v>
@@ -29666,10 +29666,10 @@
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B527" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C527" s="7">
         <v>3</v>
@@ -29718,10 +29718,10 @@
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B528" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C528" s="7">
         <v>4</v>
@@ -29770,10 +29770,10 @@
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B529" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C529" s="7">
         <v>1</v>
@@ -29822,10 +29822,10 @@
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B530" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C530" s="7">
         <v>1</v>
@@ -29874,10 +29874,10 @@
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B531" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C531" s="7">
         <v>1</v>
@@ -29926,10 +29926,10 @@
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B532" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C532" s="7">
         <v>1</v>
@@ -29980,10 +29980,10 @@
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B533" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C533" s="7">
         <v>3</v>
@@ -30032,10 +30032,10 @@
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B534" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C534" s="7">
         <v>1</v>
@@ -30084,10 +30084,10 @@
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B535" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C535" s="7">
         <v>1</v>
@@ -30136,10 +30136,10 @@
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B536" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C536" s="7">
         <v>3</v>
@@ -30188,10 +30188,10 @@
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B537" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C537" s="7">
         <v>1</v>
@@ -30240,10 +30240,10 @@
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B538" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C538" s="7">
         <v>2</v>
@@ -30292,10 +30292,10 @@
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B539" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C539" s="7">
         <v>1</v>
@@ -30344,10 +30344,10 @@
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B540" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C540" s="7">
         <v>1</v>
@@ -30396,10 +30396,10 @@
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B541" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C541" s="7">
         <v>1</v>
@@ -30448,10 +30448,10 @@
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B542" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C542" s="7">
         <v>2</v>
@@ -30500,10 +30500,10 @@
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B543" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C543" s="7">
         <v>3</v>
@@ -30552,10 +30552,10 @@
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B544" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C544" s="7">
         <v>2</v>
@@ -30604,10 +30604,10 @@
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B545" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C545" s="7">
         <v>2</v>
@@ -30656,10 +30656,10 @@
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B546" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C546" s="7">
         <v>1</v>
@@ -30708,10 +30708,10 @@
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B547" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C547" s="7">
         <v>4</v>
@@ -30760,10 +30760,10 @@
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C548" s="7">
         <v>4</v>
@@ -30812,10 +30812,10 @@
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C549" s="7">
         <v>1</v>
@@ -30864,10 +30864,10 @@
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B550" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C550" s="7">
         <v>1</v>
@@ -30916,10 +30916,10 @@
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B551" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C551" s="7">
         <v>1</v>
@@ -30970,10 +30970,10 @@
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B552" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C552" s="7">
         <v>1</v>
@@ -31022,10 +31022,10 @@
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C553" s="7">
         <v>1</v>
@@ -31076,10 +31076,10 @@
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B554" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C554" s="7">
         <v>1</v>
@@ -31130,10 +31130,10 @@
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B555" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C555" s="7">
         <v>1</v>
@@ -31182,10 +31182,10 @@
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B556" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C556" s="7">
         <v>1</v>
@@ -31234,10 +31234,10 @@
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B557" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C557" s="7">
         <v>2</v>
@@ -31286,10 +31286,10 @@
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B558" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C558" s="7">
         <v>1</v>
@@ -31338,10 +31338,10 @@
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B559" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C559" s="7">
         <v>1</v>
@@ -31390,10 +31390,10 @@
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C560" s="7">
         <v>1</v>
@@ -31442,10 +31442,10 @@
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C561" s="7">
         <v>1</v>
@@ -31494,10 +31494,10 @@
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C562" s="7">
         <v>2</v>
@@ -31548,10 +31548,10 @@
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C563" s="7">
         <v>3</v>
@@ -31600,10 +31600,10 @@
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C564" s="7">
         <v>1</v>
@@ -31652,10 +31652,10 @@
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B565" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C565" s="7">
         <v>1</v>
@@ -31704,10 +31704,10 @@
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C566" s="7">
         <v>1</v>
@@ -31756,10 +31756,10 @@
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B567" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C567" s="7">
         <v>2</v>
@@ -31808,10 +31808,10 @@
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C568" s="7">
         <v>1</v>
@@ -31860,10 +31860,10 @@
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C569" s="7">
         <v>2</v>
@@ -31912,10 +31912,10 @@
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C570" s="7">
         <v>1</v>
@@ -31964,10 +31964,10 @@
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B571" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C571" s="7">
         <v>1</v>
@@ -32016,10 +32016,10 @@
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C572" s="7">
         <v>1</v>
@@ -32068,10 +32068,10 @@
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B573" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C573" s="7">
         <v>1</v>
@@ -32120,10 +32120,10 @@
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C574" s="7">
         <v>1</v>
@@ -32172,10 +32172,10 @@
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B575" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C575" s="7">
         <v>1</v>
@@ -32226,10 +32226,10 @@
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C576" s="7">
         <v>1</v>
@@ -32280,10 +32280,10 @@
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C577" s="7">
         <v>1</v>
@@ -32332,10 +32332,10 @@
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C578" s="7">
         <v>1</v>
@@ -32384,10 +32384,10 @@
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B579" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C579" s="7">
         <v>1</v>
@@ -32436,10 +32436,10 @@
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C580" s="7">
         <v>1</v>
@@ -32488,10 +32488,10 @@
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B581" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C581" s="7">
         <v>1</v>
@@ -32540,10 +32540,10 @@
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B582" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C582" s="7">
         <v>1</v>
@@ -32592,10 +32592,10 @@
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C583" s="7">
         <v>1</v>
@@ -32644,10 +32644,10 @@
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B584" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C584" s="7">
         <v>1</v>
@@ -32696,10 +32696,10 @@
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B585" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C585" s="7">
         <v>1</v>
@@ -32748,10 +32748,10 @@
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C586" s="7">
         <v>1</v>
@@ -32800,10 +32800,10 @@
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B587" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C587" s="7">
         <v>3</v>
@@ -32852,10 +32852,10 @@
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C588" s="7">
         <v>1</v>
@@ -32904,10 +32904,10 @@
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B589" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C589" s="7">
         <v>1</v>
@@ -32956,10 +32956,10 @@
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C590" s="7">
         <v>1</v>
@@ -33008,10 +33008,10 @@
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B591" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C591" s="7">
         <v>1</v>
@@ -33060,10 +33060,10 @@
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C592" s="7">
         <v>1</v>
@@ -33112,10 +33112,10 @@
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C593" s="7">
         <v>1</v>
@@ -33164,10 +33164,10 @@
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C594" s="7">
         <v>1</v>
@@ -33216,10 +33216,10 @@
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B595" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C595" s="7">
         <v>1</v>
@@ -33268,10 +33268,10 @@
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C596" s="7">
         <v>1</v>
@@ -33320,10 +33320,10 @@
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A597" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C597" s="7">
         <v>1</v>
@@ -33372,10 +33372,10 @@
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A598" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C598" s="7">
         <v>1</v>
@@ -33424,10 +33424,10 @@
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C599" s="7">
         <v>2</v>
@@ -33476,10 +33476,10 @@
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A600" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C600" s="7">
         <v>1</v>
@@ -33528,10 +33528,10 @@
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A601" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B601" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C601" s="7">
         <v>1</v>
@@ -33580,10 +33580,10 @@
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A602" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C602" s="7">
         <v>1</v>
@@ -33632,10 +33632,10 @@
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A603" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B603" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C603" s="7">
         <v>1</v>
@@ -33684,10 +33684,10 @@
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A604" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C604" s="7">
         <v>1</v>
@@ -33736,10 +33736,10 @@
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C605" s="7">
         <v>1</v>
@@ -33788,10 +33788,10 @@
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C606" s="7">
         <v>1</v>
@@ -33842,10 +33842,10 @@
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C607" s="7">
         <v>3</v>
@@ -33896,10 +33896,10 @@
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C608" s="7">
         <v>1</v>
@@ -33948,10 +33948,10 @@
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C609" s="7">
         <v>1</v>
@@ -34000,10 +34000,10 @@
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C610" s="7">
         <v>1</v>
@@ -34054,10 +34054,10 @@
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B611" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C611" s="7">
         <v>2</v>
@@ -34106,10 +34106,10 @@
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A612" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C612" s="7">
         <v>1</v>
@@ -34158,10 +34158,10 @@
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B613" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C613" s="7">
         <v>1</v>
@@ -34210,10 +34210,10 @@
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A614" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C614" s="7">
         <v>1</v>
@@ -34262,10 +34262,10 @@
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A615" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B615" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C615" s="7">
         <v>1</v>
@@ -34314,10 +34314,10 @@
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C616" s="7">
         <v>1</v>
@@ -34366,10 +34366,10 @@
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A617" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B617" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C617" s="7">
         <v>1</v>
@@ -34418,7 +34418,7 @@
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A618" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B618" s="7" t="s">
         <v>159</v>
@@ -34470,7 +34470,7 @@
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B619" s="7" t="s">
         <v>159</v>
@@ -34522,7 +34522,7 @@
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B620" s="7" t="s">
         <v>159</v>
@@ -34574,7 +34574,7 @@
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B621" s="7" t="s">
         <v>159</v>
@@ -34626,7 +34626,7 @@
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A622" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B622" s="7" t="s">
         <v>159</v>
@@ -34680,7 +34680,7 @@
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A623" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B623" s="7" t="s">
         <v>159</v>
@@ -34732,7 +34732,7 @@
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A624" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B624" s="7" t="s">
         <v>159</v>
@@ -34786,7 +34786,7 @@
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A625" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B625" s="7" t="s">
         <v>159</v>
@@ -34838,7 +34838,7 @@
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B626" s="7" t="s">
         <v>159</v>
@@ -34890,7 +34890,7 @@
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A627" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B627" s="7" t="s">
         <v>159</v>
@@ -34942,7 +34942,7 @@
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A628" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B628" s="7" t="s">
         <v>159</v>
@@ -34994,7 +34994,7 @@
     </row>
     <row r="629" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B629" s="7" t="s">
         <v>159</v>
@@ -35048,7 +35048,7 @@
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A630" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B630" s="7" t="s">
         <v>159</v>
@@ -35100,7 +35100,7 @@
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B631" s="7" t="s">
         <v>159</v>
@@ -35152,7 +35152,7 @@
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A632" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B632" s="7" t="s">
         <v>159</v>
@@ -35204,7 +35204,7 @@
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A633" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B633" s="7" t="s">
         <v>159</v>
@@ -35258,7 +35258,7 @@
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A634" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B634" s="7" t="s">
         <v>159</v>
@@ -35310,7 +35310,7 @@
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A635" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B635" s="7" t="s">
         <v>159</v>
@@ -35362,7 +35362,7 @@
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B636" s="7" t="s">
         <v>159</v>
@@ -35414,7 +35414,7 @@
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A637" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B637" s="7" t="s">
         <v>159</v>
@@ -35468,7 +35468,7 @@
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A638" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B638" s="7" t="s">
         <v>159</v>
@@ -35520,7 +35520,7 @@
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A639" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B639" s="7" t="s">
         <v>159</v>
@@ -35574,7 +35574,7 @@
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B640" s="7" t="s">
         <v>159</v>
@@ -35626,7 +35626,7 @@
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B641" s="7" t="s">
         <v>159</v>
@@ -35678,7 +35678,7 @@
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A642" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B642" s="7" t="s">
         <v>159</v>
@@ -35732,7 +35732,7 @@
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A643" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B643" s="7" t="s">
         <v>159</v>
@@ -35784,7 +35784,7 @@
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A644" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B644" s="7" t="s">
         <v>159</v>
@@ -35836,7 +35836,7 @@
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A645" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B645" s="7" t="s">
         <v>159</v>
@@ -35888,7 +35888,7 @@
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B646" s="7" t="s">
         <v>159</v>
@@ -35940,7 +35940,7 @@
     </row>
     <row r="647" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A647" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B647" s="7" t="s">
         <v>159</v>
@@ -35994,7 +35994,7 @@
     </row>
     <row r="648" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A648" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B648" s="7" t="s">
         <v>159</v>
@@ -36048,7 +36048,7 @@
     </row>
     <row r="649" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A649" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B649" s="7" t="s">
         <v>159</v>
@@ -36102,7 +36102,7 @@
     </row>
     <row r="650" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A650" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B650" s="7" t="s">
         <v>159</v>
@@ -36154,7 +36154,7 @@
     </row>
     <row r="651" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B651" s="7" t="s">
         <v>159</v>
@@ -36206,7 +36206,7 @@
     </row>
     <row r="652" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A652" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B652" s="7" t="s">
         <v>159</v>
@@ -36258,7 +36258,7 @@
     </row>
     <row r="653" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A653" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B653" s="7" t="s">
         <v>159</v>
@@ -36310,7 +36310,7 @@
     </row>
     <row r="654" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A654" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B654" s="7" t="s">
         <v>159</v>
@@ -36362,7 +36362,7 @@
     </row>
     <row r="655" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B655" s="7" t="s">
         <v>159</v>
@@ -36414,7 +36414,7 @@
     </row>
     <row r="656" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B656" s="7" t="s">
         <v>159</v>
@@ -36468,7 +36468,7 @@
     </row>
     <row r="657" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A657" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B657" s="7" t="s">
         <v>159</v>
@@ -36520,7 +36520,7 @@
     </row>
     <row r="658" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A658" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B658" s="7" t="s">
         <v>159</v>
@@ -36574,7 +36574,7 @@
     </row>
     <row r="659" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A659" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B659" s="7" t="s">
         <v>159</v>
@@ -36626,7 +36626,7 @@
     </row>
     <row r="660" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A660" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B660" s="7" t="s">
         <v>159</v>
@@ -36678,7 +36678,7 @@
     </row>
     <row r="661" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B661" s="7" t="s">
         <v>159</v>
@@ -36730,7 +36730,7 @@
     </row>
     <row r="662" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B662" s="7" t="s">
         <v>159</v>
@@ -36782,7 +36782,7 @@
     </row>
     <row r="663" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A663" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B663" s="7" t="s">
         <v>159</v>
@@ -36834,7 +36834,7 @@
     </row>
     <row r="664" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A664" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B664" s="7" t="s">
         <v>159</v>
@@ -36886,7 +36886,7 @@
     </row>
     <row r="665" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A665" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B665" s="7" t="s">
         <v>159</v>
@@ -36938,7 +36938,7 @@
     </row>
     <row r="666" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B666" s="7" t="s">
         <v>159</v>
@@ -36992,7 +36992,7 @@
     </row>
     <row r="667" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A667" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B667" s="7" t="s">
         <v>159</v>
@@ -37044,7 +37044,7 @@
     </row>
     <row r="668" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A668" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B668" s="7" t="s">
         <v>159</v>
@@ -37098,7 +37098,7 @@
     </row>
     <row r="669" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A669" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B669" s="7" t="s">
         <v>159</v>
@@ -37150,7 +37150,7 @@
     </row>
     <row r="670" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A670" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B670" s="7" t="s">
         <v>159</v>
@@ -37204,7 +37204,7 @@
     </row>
     <row r="671" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B671" s="7" t="s">
         <v>159</v>
@@ -37258,7 +37258,7 @@
     </row>
     <row r="672" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B672" s="7" t="s">
         <v>159</v>
@@ -37312,7 +37312,7 @@
     </row>
     <row r="673" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A673" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B673" s="7" t="s">
         <v>159</v>
@@ -37366,7 +37366,7 @@
     </row>
     <row r="674" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A674" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B674" s="7" t="s">
         <v>159</v>
@@ -37418,7 +37418,7 @@
     </row>
     <row r="675" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A675" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B675" s="7" t="s">
         <v>159</v>
@@ -37472,7 +37472,7 @@
     </row>
     <row r="676" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A676" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B676" s="7" t="s">
         <v>159</v>
@@ -37526,7 +37526,7 @@
     </row>
     <row r="677" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A677" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B677" s="7" t="s">
         <v>159</v>
@@ -37578,10 +37578,10 @@
     </row>
     <row r="678" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A678" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B678" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C678" s="7">
         <v>1</v>
@@ -37630,10 +37630,10 @@
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A679" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B679" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C679" s="7" t="s">
         <v>7</v>
@@ -37682,10 +37682,10 @@
     </row>
     <row r="680" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A680" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B680" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C680" s="7">
         <v>1</v>
@@ -37734,10 +37734,10 @@
     </row>
     <row r="681" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A681" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C681" s="7">
         <v>4</v>
@@ -37788,10 +37788,10 @@
     </row>
     <row r="682" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A682" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C682" s="7">
         <v>4</v>
@@ -37842,10 +37842,10 @@
     </row>
     <row r="683" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A683" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B683" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C683" s="7">
         <v>3</v>
@@ -37896,10 +37896,10 @@
     </row>
     <row r="684" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A684" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C684" s="7">
         <v>2</v>
@@ -37948,10 +37948,10 @@
     </row>
     <row r="685" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A685" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C685" s="7">
         <v>4</v>
@@ -38000,10 +38000,10 @@
     </row>
     <row r="686" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C686" s="7">
         <v>2</v>
@@ -38054,10 +38054,10 @@
     </row>
     <row r="687" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A687" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C687" s="7">
         <v>4</v>
@@ -38106,10 +38106,10 @@
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A688" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C688" s="7">
         <v>1</v>
@@ -38158,10 +38158,10 @@
     </row>
     <row r="689" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C689" s="7">
         <v>2</v>
@@ -38210,10 +38210,10 @@
     </row>
     <row r="690" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A690" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C690" s="7">
         <v>4</v>
@@ -38262,10 +38262,10 @@
     </row>
     <row r="691" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C691" s="7">
         <v>5</v>
@@ -38314,10 +38314,10 @@
     </row>
     <row r="692" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A692" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B692" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C692" s="7">
         <v>4</v>
@@ -38366,10 +38366,10 @@
     </row>
     <row r="693" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A693" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B693" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C693" s="7">
         <v>5</v>
@@ -38420,10 +38420,10 @@
     </row>
     <row r="694" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A694" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B694" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C694" s="7">
         <v>5</v>
@@ -38474,10 +38474,10 @@
     </row>
     <row r="695" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A695" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B695" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C695" s="7">
         <v>3</v>
@@ -38528,10 +38528,10 @@
     </row>
     <row r="696" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B696" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C696" s="7">
         <v>1</v>
@@ -38582,10 +38582,10 @@
     </row>
     <row r="697" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A697" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B697" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C697" s="7">
         <v>2</v>
@@ -38636,10 +38636,10 @@
     </row>
     <row r="698" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A698" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C698" s="7">
         <v>1</v>
@@ -38690,10 +38690,10 @@
     </row>
     <row r="699" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A699" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C699" s="7">
         <v>4</v>
@@ -38744,10 +38744,10 @@
     </row>
     <row r="700" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A700" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C700" s="7">
         <v>5</v>
@@ -38796,10 +38796,10 @@
     </row>
     <row r="701" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A701" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B701" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C701" s="7">
         <v>1</v>
@@ -38850,10 +38850,10 @@
     </row>
     <row r="702" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A702" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B702" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C702" s="7">
         <v>5</v>
@@ -38904,10 +38904,10 @@
     </row>
     <row r="703" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A703" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B703" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C703" s="7">
         <v>3</v>
@@ -38958,10 +38958,10 @@
     </row>
     <row r="704" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A704" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C704" s="7">
         <v>3</v>
@@ -39012,10 +39012,10 @@
     </row>
     <row r="705" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A705" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C705" s="7">
         <v>4</v>
@@ -39064,10 +39064,10 @@
     </row>
     <row r="706" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A706" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C706" s="7">
         <v>3</v>
@@ -39116,10 +39116,10 @@
     </row>
     <row r="707" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A707" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C707" s="7">
         <v>1</v>
@@ -39170,10 +39170,10 @@
     </row>
     <row r="708" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A708" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B708" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C708" s="7">
         <v>5</v>
@@ -39224,10 +39224,10 @@
     </row>
     <row r="709" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A709" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B709" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C709" s="7">
         <v>1</v>
@@ -39276,10 +39276,10 @@
     </row>
     <row r="710" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A710" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C710" s="7">
         <v>4</v>
@@ -39330,10 +39330,10 @@
     </row>
     <row r="711" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A711" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C711" s="7">
         <v>3</v>
@@ -39382,10 +39382,10 @@
     </row>
     <row r="712" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A712" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B712" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C712" s="7">
         <v>5</v>
@@ -39436,10 +39436,10 @@
     </row>
     <row r="713" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A713" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C713" s="7">
         <v>5</v>
@@ -39488,10 +39488,10 @@
     </row>
     <row r="714" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A714" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B714" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C714" s="7">
         <v>3</v>
@@ -39542,10 +39542,10 @@
     </row>
     <row r="715" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A715" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B715" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C715" s="7">
         <v>1</v>
@@ -39594,10 +39594,10 @@
     </row>
     <row r="716" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A716" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B716" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C716" s="7">
         <v>3</v>
@@ -39646,10 +39646,10 @@
     </row>
     <row r="717" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B717" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C717" s="7" t="s">
         <v>7</v>
@@ -39700,10 +39700,10 @@
     </row>
     <row r="718" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A718" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B718" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C718" s="7">
         <v>3</v>
@@ -39754,10 +39754,10 @@
     </row>
     <row r="719" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A719" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C719" s="7">
         <v>3</v>
@@ -39808,10 +39808,10 @@
     </row>
     <row r="720" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A720" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C720" s="7">
         <v>3</v>
@@ -39860,10 +39860,10 @@
     </row>
     <row r="721" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A721" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C721" s="7">
         <v>4</v>
@@ -39912,10 +39912,10 @@
     </row>
     <row r="722" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A722" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C722" s="7">
         <v>5</v>
@@ -39966,10 +39966,10 @@
     </row>
     <row r="723" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A723" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C723" s="7">
         <v>3</v>
@@ -40018,10 +40018,10 @@
     </row>
     <row r="724" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A724" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C724" s="7">
         <v>1</v>
@@ -40070,10 +40070,10 @@
     </row>
     <row r="725" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A725" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C725" s="7">
         <v>3</v>
@@ -40122,10 +40122,10 @@
     </row>
     <row r="726" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A726" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C726" s="7">
         <v>1</v>
@@ -40174,10 +40174,10 @@
     </row>
     <row r="727" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A727" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C727" s="7">
         <v>4</v>
@@ -40228,10 +40228,10 @@
     </row>
     <row r="728" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A728" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C728" s="7">
         <v>4</v>
@@ -40280,10 +40280,10 @@
     </row>
     <row r="729" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A729" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C729" s="7">
         <v>1</v>
@@ -40332,10 +40332,10 @@
     </row>
     <row r="730" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A730" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C730" s="7">
         <v>4</v>
@@ -40386,10 +40386,10 @@
     </row>
     <row r="731" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A731" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C731" s="7">
         <v>2</v>
@@ -40438,10 +40438,10 @@
     </row>
     <row r="732" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A732" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C732" s="7">
         <v>1</v>
@@ -40490,10 +40490,10 @@
     </row>
     <row r="733" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A733" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C733" s="7">
         <v>2</v>
@@ -40544,10 +40544,10 @@
     </row>
     <row r="734" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A734" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C734" s="7">
         <v>4</v>
@@ -40598,10 +40598,10 @@
     </row>
     <row r="735" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A735" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C735" s="7">
         <v>4</v>
@@ -40652,10 +40652,10 @@
     </row>
     <row r="736" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C736" s="7">
         <v>4</v>
@@ -40704,10 +40704,10 @@
     </row>
     <row r="737" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A737" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C737" s="7">
         <v>3</v>
@@ -40756,10 +40756,10 @@
     </row>
     <row r="738" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A738" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C738" s="7">
         <v>3</v>
@@ -40808,10 +40808,10 @@
     </row>
     <row r="739" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A739" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C739" s="7">
         <v>5</v>
@@ -40862,10 +40862,10 @@
     </row>
     <row r="740" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A740" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C740" s="7">
         <v>5</v>
@@ -40916,10 +40916,10 @@
     </row>
     <row r="741" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A741" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C741" s="7">
         <v>5</v>
@@ -40970,10 +40970,10 @@
     </row>
     <row r="742" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A742" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C742" s="7">
         <v>3</v>
@@ -41022,10 +41022,10 @@
     </row>
     <row r="743" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A743" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C743" s="7">
         <v>4</v>
@@ -41076,10 +41076,10 @@
     </row>
     <row r="744" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A744" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C744" s="7">
         <v>3</v>
@@ -41130,10 +41130,10 @@
     </row>
     <row r="745" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A745" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C745" s="7">
         <v>4</v>
@@ -41184,10 +41184,10 @@
     </row>
     <row r="746" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A746" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C746" s="7">
         <v>3</v>
@@ -41238,10 +41238,10 @@
     </row>
     <row r="747" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A747" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C747" s="7">
         <v>2</v>
@@ -41290,10 +41290,10 @@
     </row>
     <row r="748" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A748" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C748" s="7">
         <v>2</v>
@@ -41342,10 +41342,10 @@
     </row>
     <row r="749" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A749" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C749" s="7">
         <v>5</v>
@@ -41394,10 +41394,10 @@
     </row>
     <row r="750" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A750" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C750" s="7">
         <v>3</v>
@@ -41446,10 +41446,10 @@
     </row>
     <row r="751" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A751" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="C751" s="7">
         <v>2</v>
